--- a/FantaSoccer/xG/SerieA/Spezia_matches_2020.xlsx
+++ b/FantaSoccer/xG/SerieA/Spezia_matches_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="67">
   <si>
     <t>home</t>
   </si>
@@ -139,6 +139,15 @@
     <t>0.450318</t>
   </si>
   <si>
+    <t>4.01311</t>
+  </si>
+  <si>
+    <t>1.71534</t>
+  </si>
+  <si>
+    <t>0.994528</t>
+  </si>
+  <si>
     <t>2.6497</t>
   </si>
   <si>
@@ -182,6 +191,15 @@
   </si>
   <si>
     <t>1.5461</t>
+  </si>
+  <si>
+    <t>1.92698</t>
+  </si>
+  <si>
+    <t>0.433748</t>
+  </si>
+  <si>
+    <t>0.310945</t>
   </si>
   <si>
     <t>1</t>
@@ -594,13 +612,13 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -617,13 +635,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -640,13 +658,13 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -663,13 +681,13 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -686,13 +704,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -709,13 +727,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -732,13 +750,13 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -755,13 +773,13 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -778,13 +796,13 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -801,13 +819,13 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -824,13 +842,13 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -847,13 +865,13 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -870,13 +888,13 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -893,13 +911,13 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -916,16 +934,16 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -935,8 +953,20 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -946,8 +976,20 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -957,8 +999,20 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -969,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -980,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -991,7 +1045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1002,7 +1056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1013,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1024,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1035,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1046,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1057,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1068,7 +1122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1079,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1090,7 +1144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
